--- a/tables/1974/Table 5.xlsx
+++ b/tables/1974/Table 5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emberu\Desktop\Cassava\1974\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAdetuyi\OneDrive - CGIAR\WORK\MR PRASAD\2022\7. August\Annual Report\New_Tables\1974\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">Table 5. </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Heritability estimates using variance components.</t>
   </si>
@@ -60,17 +56,24 @@
     <t>σph</t>
   </si>
   <si>
-    <t xml:space="preserve">Variance </t>
-  </si>
-  <si>
-    <t>component</t>
+    <t>Table name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foot note: </t>
+  </si>
+  <si>
+    <t>The data from 952 clones of a single replication were used for the estimation of total variation</t>
+  </si>
+  <si>
+    <t>and the data from 52 plots of a cultivar 60444 planted along the middle of the strip were used for estimation of error term.</t>
   </si>
   <si>
     <r>
-      <t>h</t>
+      <t>σ</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -82,13 +85,14 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(%)</t>
+      <t>g</t>
     </r>
   </si>
   <si>
@@ -97,6 +101,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -108,6 +113,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -119,10 +125,11 @@
   </si>
   <si>
     <r>
-      <t>σ</t>
+      <t>h</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -134,14 +141,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>g</t>
+      <t>(%)</t>
     </r>
+  </si>
+  <si>
+    <t>Variance Component</t>
   </si>
 </sst>
 </file>
@@ -149,9 +160,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +171,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -184,13 +204,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,187 +641,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>47.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>122.051</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>121.58199999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>334.23599999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>37.524000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>296.71199999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>36.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>47.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="E10" s="5">
+        <v>36.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="D3">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E3">
-        <v>44.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="C4">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="D4">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="E4">
-        <v>47.94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>122.051</v>
-      </c>
-      <c r="C5">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="D5">
-        <v>121.58199999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>334.23599999999999</v>
-      </c>
-      <c r="C6">
-        <v>37.524000000000001</v>
-      </c>
-      <c r="D6">
-        <v>296.71199999999999</v>
-      </c>
-      <c r="E6">
-        <v>11.23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="C7">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="D7">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="E7">
-        <v>36.92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1.1619999999999999</v>
-      </c>
-      <c r="C8">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="D8">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="E8">
-        <v>47.76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="D9">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="E9">
-        <v>36.08</v>
-      </c>
+      <c r="C12" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>